--- a/app/Licenciatura_em_Financas.xlsx
+++ b/app/Licenciatura_em_Financas.xlsx
@@ -26,22 +26,21 @@
     <sheet name="20152436" sheetId="16" r:id="rId19"/>
     <sheet name="20152429" sheetId="17" r:id="rId20"/>
     <sheet name="20152445" sheetId="18" r:id="rId21"/>
-    <sheet name="20154447" sheetId="19" r:id="rId22"/>
-    <sheet name="20152426" sheetId="20" r:id="rId23"/>
-    <sheet name="20152434" sheetId="21" r:id="rId24"/>
-    <sheet name="20152441" sheetId="22" r:id="rId25"/>
-    <sheet name="20152451" sheetId="23" r:id="rId26"/>
-    <sheet name="20152446" sheetId="24" r:id="rId27"/>
-    <sheet name="20152432" sheetId="25" r:id="rId28"/>
-    <sheet name="20152447" sheetId="26" r:id="rId29"/>
-    <sheet name="20152428" sheetId="27" r:id="rId30"/>
-    <sheet name="20152430" sheetId="28" r:id="rId31"/>
-    <sheet name="20152453" sheetId="29" r:id="rId32"/>
-    <sheet name="20152449" sheetId="30" r:id="rId33"/>
-    <sheet name="20152440" sheetId="31" r:id="rId34"/>
-    <sheet name="20152439" sheetId="32" r:id="rId35"/>
-    <sheet name="Sheet2" sheetId="33" r:id="rId36"/>
-    <sheet name="Sheet3" sheetId="34" r:id="rId37"/>
+    <sheet name="20152426" sheetId="19" r:id="rId22"/>
+    <sheet name="20152434" sheetId="20" r:id="rId23"/>
+    <sheet name="20152441" sheetId="21" r:id="rId24"/>
+    <sheet name="20152451" sheetId="22" r:id="rId25"/>
+    <sheet name="20152446" sheetId="23" r:id="rId26"/>
+    <sheet name="20152432" sheetId="24" r:id="rId27"/>
+    <sheet name="20152447" sheetId="25" r:id="rId28"/>
+    <sheet name="20152428" sheetId="26" r:id="rId29"/>
+    <sheet name="20152430" sheetId="27" r:id="rId30"/>
+    <sheet name="20152453" sheetId="28" r:id="rId31"/>
+    <sheet name="20152449" sheetId="29" r:id="rId32"/>
+    <sheet name="20152440" sheetId="30" r:id="rId33"/>
+    <sheet name="20152439" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -198,9 +197,6 @@
     <t>Henriqueta Adel. Cumbane</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -252,9 +248,6 @@
     <t>Teresa Manuel</t>
   </si>
   <si>
-    <t>Distrito de Bilene</t>
-  </si>
-  <si>
     <t>090202572794B</t>
   </si>
   <si>
@@ -276,9 +269,6 @@
     <t>Ines Da Cruz Reginaldo</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -330,9 +320,6 @@
     <t>Maria Quefasse</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>+258872394900</t>
   </si>
   <si>
@@ -375,9 +362,6 @@
     <t>Ana Vilanculos</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110400541754F</t>
   </si>
   <si>
@@ -423,9 +407,6 @@
     <t>Lurdes Congolo</t>
   </si>
   <si>
-    <t>Distrito de Xai-Xai</t>
-  </si>
-  <si>
     <t>090101224259B</t>
   </si>
   <si>
@@ -447,9 +428,6 @@
     <t>Fatima Filimone Doce</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110100002907B</t>
   </si>
   <si>
@@ -474,9 +452,6 @@
     <t>Anazia Mario Arrone</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100783538S</t>
   </si>
   <si>
@@ -525,9 +500,6 @@
     <t>Rosa Julio</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>100102616503B</t>
   </si>
   <si>
@@ -573,9 +545,6 @@
     <t>Alcinda Francisco Maungue</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110100570493S</t>
   </si>
   <si>
@@ -606,15 +575,6 @@
     <t>+258825808653</t>
   </si>
   <si>
-    <t>Livele</t>
-  </si>
-  <si>
-    <t>Rosário António</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Langa</t>
   </si>
   <si>
@@ -675,9 +635,6 @@
     <t>Natalina Alface</t>
   </si>
   <si>
-    <t>Cidade de Chimoio</t>
-  </si>
-  <si>
     <t>050102101804A</t>
   </si>
   <si>
@@ -700,9 +657,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lucilia Ismael Algi </t>
-  </si>
-  <si>
-    <t>Distrito de Chibuto</t>
   </si>
   <si>
     <t>090101214691N</t>
@@ -2157,7 +2111,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2173,7 +2127,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2189,7 +2143,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2205,7 +2159,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2221,7 +2175,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2236,9 +2190,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2246,7 +2198,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2257,7 +2209,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2266,7 +2218,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2278,7 +2230,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2286,7 +2238,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2382,7 +2334,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2425,7 +2377,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2752,7 +2704,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2768,7 +2720,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2784,7 +2736,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2800,7 +2752,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2816,7 +2768,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2831,9 +2783,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2841,7 +2791,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2852,7 +2802,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2861,7 +2811,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2873,7 +2823,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2881,7 +2831,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2977,7 +2927,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3020,7 +2970,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3347,7 +3297,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3363,7 +3313,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3379,7 +3329,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3395,7 +3345,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3411,7 +3361,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3426,9 +3376,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3436,7 +3384,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3447,7 +3395,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3456,7 +3404,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3468,7 +3416,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3476,7 +3424,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3572,7 +3520,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3615,7 +3563,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3942,7 +3890,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3958,7 +3906,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3974,7 +3922,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3990,7 +3938,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4006,7 +3954,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4021,9 +3969,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4031,7 +3977,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4042,7 +3988,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4051,7 +3997,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4063,7 +4009,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4071,7 +4017,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4167,7 +4113,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4210,7 +4156,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4537,7 +4483,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4553,7 +4499,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4569,7 +4515,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4585,7 +4531,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4601,7 +4547,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4616,9 +4562,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4626,7 +4570,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4637,7 +4581,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4646,7 +4590,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4658,7 +4602,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4666,7 +4610,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4762,7 +4706,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4805,7 +4749,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5132,7 +5076,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5148,7 +5092,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5164,7 +5108,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5180,7 +5124,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5196,7 +5140,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5211,9 +5155,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5221,7 +5163,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5232,7 +5174,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5241,7 +5183,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5253,7 +5195,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5261,7 +5203,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5357,7 +5299,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5400,7 +5342,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5727,7 +5669,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5743,7 +5685,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5759,7 +5701,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5775,7 +5717,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5791,7 +5733,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5806,9 +5748,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5816,7 +5756,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5827,7 +5767,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5836,7 +5776,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5848,7 +5788,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5856,7 +5796,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5952,7 +5892,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5995,7 +5935,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6322,7 +6262,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6338,7 +6278,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6354,7 +6294,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6370,7 +6310,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6386,7 +6326,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6401,9 +6341,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>174</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6411,7 +6349,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6422,7 +6360,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6431,7 +6369,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6443,7 +6381,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6451,7 +6389,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6547,7 +6485,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6590,7 +6528,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6917,7 +6855,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6933,7 +6871,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6949,7 +6887,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6965,7 +6903,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6981,7 +6919,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6996,9 +6934,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7006,7 +6942,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7017,7 +6953,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7026,7 +6962,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7038,7 +6974,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7046,7 +6982,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7142,7 +7078,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7185,7 +7121,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7436,7 +7372,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -7486,7 +7424,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154447</v>
+        <v>20152426</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7510,7 +7448,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7526,7 +7464,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7541,7 +7479,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -7555,7 +7495,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>178</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -7569,7 +7511,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>179</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -7590,7 +7534,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -7599,14 +7545,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -7616,13 +7566,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -7717,7 +7671,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7743,7 +7697,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -7757,7 +7713,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -8162,9 +8120,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8172,7 +8128,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8183,7 +8139,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8192,7 +8148,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8204,7 +8160,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8308,7 +8264,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8351,7 +8307,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8654,7 +8610,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152426</v>
+        <v>20152434</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8678,7 +8634,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8694,7 +8650,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8710,7 +8666,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8726,7 +8682,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8742,7 +8698,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8757,9 +8713,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8767,7 +8721,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8778,7 +8732,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8787,7 +8741,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8799,7 +8753,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8807,7 +8761,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8903,7 +8857,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8930,7 +8884,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8946,7 +8900,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9249,7 +9203,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152434</v>
+        <v>20152441</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9273,7 +9227,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9289,7 +9243,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9305,7 +9259,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9321,7 +9275,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9337,7 +9291,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9352,9 +9306,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9362,7 +9314,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9373,7 +9325,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9382,7 +9334,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9394,7 +9346,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9402,7 +9354,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9498,7 +9450,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9525,7 +9477,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9541,7 +9493,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9844,7 +9796,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152441</v>
+        <v>20152451</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9868,7 +9820,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9884,7 +9836,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9900,7 +9852,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9916,7 +9868,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9932,7 +9884,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9947,9 +9899,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>208</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9957,7 +9907,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9968,7 +9918,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9977,7 +9927,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9989,7 +9939,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9997,7 +9947,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10093,7 +10043,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10120,7 +10070,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10136,7 +10086,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10439,7 +10389,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152451</v>
+        <v>20152446</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10463,7 +10413,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10479,7 +10429,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10495,7 +10445,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10511,7 +10461,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10527,7 +10477,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10542,9 +10492,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>217</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10552,7 +10500,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10563,7 +10511,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10572,7 +10520,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10584,15 +10532,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>218</v>
+      <c r="H17" s="20">
+        <v>85931504</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10688,7 +10636,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10715,7 +10663,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10731,7 +10679,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11034,7 +10982,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152446</v>
+        <v>20152432</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11058,7 +11006,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11074,7 +11022,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11090,7 +11038,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11106,7 +11054,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11122,7 +11070,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11137,9 +11085,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11147,7 +11093,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11158,7 +11104,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11167,7 +11113,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11179,15 +11125,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>85931504</v>
+      <c r="H17" s="20" t="s">
+        <v>216</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11283,7 +11229,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11326,7 +11272,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11629,7 +11575,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152432</v>
+        <v>20152447</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11653,7 +11599,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11669,7 +11615,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11685,7 +11631,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11701,7 +11647,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11717,7 +11663,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11732,9 +11678,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11742,7 +11686,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11753,7 +11697,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11762,7 +11706,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11774,7 +11718,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11782,7 +11726,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11878,7 +11822,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11921,7 +11865,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12224,7 +12168,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152447</v>
+        <v>20152428</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12248,7 +12192,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12264,7 +12208,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12280,7 +12224,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12296,7 +12240,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12312,7 +12256,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12327,9 +12271,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12337,7 +12279,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12348,7 +12290,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12357,7 +12299,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12369,7 +12311,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12377,7 +12319,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12473,7 +12415,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12516,7 +12458,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12819,7 +12761,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152428</v>
+        <v>20152430</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12843,7 +12785,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12859,7 +12801,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12875,7 +12817,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12891,7 +12833,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12907,7 +12849,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12922,9 +12864,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12932,7 +12872,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12943,7 +12883,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12952,7 +12892,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12964,7 +12904,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12972,7 +12912,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13068,7 +13008,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13095,7 +13035,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13111,7 +13051,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13414,7 +13354,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152430</v>
+        <v>20152453</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13438,7 +13378,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13454,7 +13394,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13470,7 +13410,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13486,7 +13426,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13502,7 +13442,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13517,9 +13457,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13527,7 +13465,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13538,7 +13476,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13547,7 +13485,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13559,7 +13497,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13567,7 +13505,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13663,7 +13601,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13690,7 +13628,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13706,7 +13644,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14009,7 +13947,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152453</v>
+        <v>20152449</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14033,7 +13971,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14049,7 +13987,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14065,7 +14003,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14081,7 +14019,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14097,7 +14035,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14112,9 +14050,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14122,7 +14058,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14133,7 +14069,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14142,7 +14078,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14154,7 +14090,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14162,7 +14098,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14258,7 +14194,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14285,7 +14221,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14301,7 +14237,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>253</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14644,7 +14580,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14660,7 +14596,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14676,7 +14612,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14692,7 +14628,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14707,9 +14643,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14717,7 +14651,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14728,7 +14662,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14737,7 +14671,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14749,7 +14683,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14853,7 +14787,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14896,7 +14830,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15199,7 +15133,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152449</v>
+        <v>20152440</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15223,7 +15157,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15239,7 +15173,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15255,7 +15189,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15271,7 +15205,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15287,7 +15221,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15302,9 +15236,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>174</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15312,7 +15244,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15323,7 +15255,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15332,7 +15264,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15344,7 +15276,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15352,7 +15284,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15448,7 +15380,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15475,7 +15407,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15491,7 +15423,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>268</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15794,7 +15726,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152440</v>
+        <v>20152439</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15818,7 +15750,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15834,7 +15766,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15850,7 +15782,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15866,7 +15798,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15882,7 +15814,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15897,9 +15829,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15907,7 +15837,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15918,7 +15848,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15927,7 +15857,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15939,15 +15869,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>274</v>
+      <c r="H17" s="20">
+        <v>85173400</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16043,7 +15973,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16086,7 +16016,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16289,601 +16219,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20152439</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>85173400</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -16907,7 +16242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17064,7 +16399,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17080,7 +16415,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17096,7 +16431,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17112,7 +16447,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17128,7 +16463,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17143,9 +16478,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17153,7 +16486,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17164,7 +16497,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17173,7 +16506,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17185,7 +16518,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17193,7 +16526,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17289,7 +16622,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17332,7 +16665,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17659,7 +16992,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17675,7 +17008,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17691,7 +17024,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17707,7 +17040,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17723,7 +17056,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17738,9 +17071,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17748,7 +17079,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17759,7 +17090,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17768,7 +17099,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17780,7 +17111,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17788,7 +17119,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17884,7 +17215,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17927,7 +17258,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18254,7 +17585,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18270,7 +17601,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18286,7 +17617,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18302,7 +17633,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18318,7 +17649,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18333,9 +17664,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18343,7 +17672,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18354,7 +17683,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18363,7 +17692,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18375,7 +17704,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18479,7 +17808,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18522,7 +17851,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18849,7 +18178,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18865,7 +18194,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18881,7 +18210,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18897,7 +18226,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18913,7 +18242,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18928,9 +18257,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18938,7 +18265,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18949,7 +18276,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18958,7 +18285,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18970,7 +18297,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19074,7 +18401,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19117,7 +18444,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19444,7 +18771,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19460,7 +18787,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19476,7 +18803,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19492,7 +18819,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19508,7 +18835,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19523,9 +18850,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19533,7 +18858,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19544,7 +18869,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19553,7 +18878,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19565,7 +18890,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19573,7 +18898,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19669,7 +18994,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19712,7 +19037,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20039,7 +19364,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20055,7 +19380,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20071,7 +19396,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20087,7 +19412,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20103,7 +19428,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20118,9 +19443,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20128,7 +19451,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20139,7 +19462,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20148,7 +19471,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20160,7 +19483,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20168,7 +19491,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20264,7 +19587,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20307,7 +19630,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
